--- a/TRANS/azure-output_file_encoded.xlsx
+++ b/TRANS/azure-output_file_encoded.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B127"/>
+  <dimension ref="A1:B761"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,1402 +556,9010 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Supercare Pharmacy</t>
+          <t>Abu Dhabi Distribution Company (ADDC)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>صيدلية سوبر كير</t>
+          <t>شركة أبوظبي للتوزيع (ADDC)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Symphony</t>
+          <t>Abu Dhabi Islamic Bank</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>السمفونيه</t>
+          <t>مصرف أبوظبي الإسلامي</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Tabaq Delivery Services</t>
+          <t>Abu Dhabi Judicial Department</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>خدمات التوصيل في مطعم</t>
+          <t>دائرة القضاء في أبوظبي</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Takside POS</t>
+          <t>Abu Dhabi National Hotels (ADNH) Catering</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>نقاط البيع Takside</t>
+          <t>فنادق أبوظبي الوطنية (ADNH) للتموين</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Talabat</t>
+          <t>Abu Dhabi National Hotels Compass ME LLC</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>طلبات</t>
+          <t>فنادق أبوظبي الوطنية كومباس الشرق الأوسط ذ.م.م</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Talha Grocery</t>
+          <t>Abu Dhabi National Oil Company (ADNOC)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>بقالة طلحة</t>
+          <t>شركة بترول أبوظبي الوطنية (أدنوك)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Tamara</t>
+          <t>Abu Hamad General Trading Company LLC</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>تمارا</t>
+          <t>شركة أبو حمد للتجارة العامة ش.م.م</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>TAMM Group LLC</t>
+          <t>Accor MGallery Queen Elizabeth 2</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>مجموعة تام ذ.م.م</t>
+          <t>أكور إم غاليري الملكة إليزابيث 2</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>TangoMe</t>
+          <t>Accuro Specialist Support Services LLC</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>تانغومي</t>
+          <t>أككورو لخدمات الدعم المتخصصة ذ.م.م</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Tanor Zaman</t>
+          <t>ADSSSA ADPay</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>وقت تانور</t>
+          <t>ADSSA ADPay</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Taobao</t>
+          <t>Advance Cure Diagnostic Center LLC</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>تاوباو</t>
+          <t>مركز أدفانس كيور للتشخيص ذ.م.م</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Tap Payments</t>
+          <t>Aghadeer</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>انقر على الدفعات</t>
+          <t>أغادير</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>TAQA Distribution (Al Ain Distribution Company)</t>
+          <t>Ahmed Al Maghribi Perfumes</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>شركة طاقة للتوزيع (شركة العين للتوزيع)</t>
+          <t>أحمد المغربي للعطور</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Tareeq Al Khalidia Auto Accessories Trading</t>
+          <t>AIKO</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>طارق الخالدية لتجارة اكسسوارات السيارات</t>
+          <t>ايكو</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>tashas</t>
+          <t>Air Speciality Coffee</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>تاشاس</t>
+          <t>قهوة هوائية متخصصة</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Tasjeel</t>
+          <t>AJA International</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>تسجيل</t>
+          <t>آجا الدولية</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Tasty Burger</t>
+          <t>Ajmal Perfumes</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>تيستي برجر</t>
+          <t>أجمل للعطور</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Tasty Grill Restaurant</t>
+          <t>Al Abdalla</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>مطعم تيستي جريل</t>
+          <t>العبدالله</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Tawasul Transport</t>
+          <t>Al Afrah Cafeteria</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>تواصل للنقل</t>
+          <t>كافتيريا الأفراح</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Tayba Gourmet</t>
+          <t>Al Ain Co-operative Society</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>طيبة جورميه</t>
+          <t>جمعية العين التعاونية</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Tchibo</t>
+          <t>Al Ain Flower Market</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>تشيبو</t>
+          <t>سوق العين للزهور</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Tea Break</t>
+          <t>Al Ain Gifts Market</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>استراحة شاي</t>
+          <t>سوق هدايا العين</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Tea Junction Express</t>
+          <t>Al Ain Pharmacy</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>شاي جانكشن إكسبريس</t>
+          <t>صيدلية العين</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Tea Time</t>
+          <t>Al Ajwa</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>وقت الشاي</t>
+          <t>العجوة</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Tea Time</t>
+          <t>Al Amer Pharmacy</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>وقت الشاي</t>
+          <t>صيدلية عامر</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Teeffee Restaurant and Cafe</t>
+          <t>Al Ansari Exchange</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>مطعم ومقهى تيفي</t>
+          <t>الأنصاري للصرافة</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Tek Travels</t>
+          <t>Al Awael Foodstuff Trading</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>تيك ترافيلز</t>
+          <t>الأوائل لتجارة المواد الغذائية</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Temu</t>
+          <t>Al Awas Butchery and Grill</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>قبل</t>
+          <t>العاص للجزارة والمشاوي</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>TEN 11 Coffee Boutique</t>
+          <t>Al Baik</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>بوتيك TEN 11 Coffee</t>
+          <t>البيك</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Texas Chicken</t>
+          <t>Al Bait Al Shami Restaurant &amp; Cafe</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>دجاج تكساس</t>
+          <t>مطعم ومقهى البيت الشامي</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>The Arts Club</t>
+          <t>Al Bait Al Syria Foodstuff</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>نادي الفنون</t>
+          <t>بيت السورية للمواد الغذائية</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>The Authority of Social Contribution - Ma'an</t>
+          <t>Al Bayan Al Raqi</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>هيئة المساهمة المجتمعية - معا</t>
+          <t>البيان الراقي</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>The Avenue Steakhouse</t>
+          <t>Al Bustan Pharmacy</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ذا أفينيو ستيك هاوس</t>
+          <t>صيدلية البستان</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>The Blue Box</t>
+          <t>Al Diyafah High School</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>الصندوق الأزرق</t>
+          <t>ثانوية الضيافة</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>The Cheesecake Factory</t>
+          <t>Al Doha General Trading</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ذا تشيز كيك فاكتوري</t>
+          <t>الدوحة للتجارة العامة</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>The Chefz</t>
+          <t>Al Fan Emirates</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ذا شيفز</t>
+          <t>الفن الإمارات</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>The Chickery</t>
+          <t>Al Fanar Restaurant &amp; Cafe</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ذا تشيكري</t>
+          <t>مطعم ومقهى الفنار</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>The Diamond Arrow Car Cleaning</t>
+          <t>Al Firdous Holdings</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>تنظيف السيارة السهم الماسي</t>
+          <t>الفردوس القابضة</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>The Els Club</t>
+          <t>Al Furqan Pharmacy</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>نادي إلس</t>
+          <t>صيدلية الفرقان</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>THE FACE SHOP</t>
+          <t>Al Gahwa Al Arabiah</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>متجر الوجه</t>
+          <t>القهوة العربية</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>The First Group</t>
+          <t>Al Ghazal Transport</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>المجموعة الأولى</t>
+          <t>الغزال للنقل</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>The Fresh Bazaar</t>
+          <t>Al Ghurair CarsTaxi</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ذا فريش بازار</t>
+          <t>سيارات الغريرسيارة أجرة</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>The GYM Sports Center</t>
+          <t>Al Halabi</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>مركز جيم الرياضي</t>
+          <t>الحلبي</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>The Independent Food Company</t>
+          <t>Al Hashemi Electronics Company</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>الشركة المستقلة للأغذية</t>
+          <t>شركة الهاشمي للإلكترونيات</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>The Midi Store</t>
+          <t>Al Hili Gifts Market</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>متجر ميدي</t>
+          <t>سوق الهيلي للهدايا</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>The Ruler's Court</t>
+          <t>Al Hoot</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ديوان الحاكم</t>
+          <t>الحوت</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>The Valet LLC</t>
+          <t>Al Ibrahimi Group of Restaurants</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ذا الخادم ذ.م.م</t>
+          <t>مجموعة مطاعم الإبراهيمي</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Three Star Fashions W L L</t>
+          <t>Al Ihsan Charity Association</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>أزياء ثري ستار دبليو إل</t>
+          <t>جمعية الإحسان الخيرية</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Thumbay Group</t>
+          <t>Al Jabal Al Akhdar Smoking Center</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>مجموعة ثومبي</t>
+          <t>مركز الجبل الأخضر للتدخين</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Tim Hortons</t>
+          <t>Al Jarah</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>تيم هورتنز</t>
+          <t>الجراح</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Tinder</t>
+          <t>Al Jazeera Aldahabiha Pharmacy LLC</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>حراق</t>
+          <t>صيدلية الجزيرة الذهبية ذ.م.م</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Ting Irie</t>
+          <t>Al Kahf General Trading LLC</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>تينغ</t>
+          <t>الكهف للتجارة العامة ذ.م.م</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Tips &amp; Toes</t>
+          <t>Al Karama Center</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>نصائح وأصابع القدم</t>
+          <t>مركز الكرامة</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Tony Roma's</t>
+          <t>Al Khayyat Investments</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>توني روما</t>
+          <t>الخياط للاستثمار</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Torino Moda Style</t>
+          <t>Al Khayyat Investments</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>أسلوب أزياء تورينو</t>
+          <t>الخياط للاستثمار</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Tory Burch</t>
+          <t>Al Mabrook Pharmacy LLC</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>توري بورش</t>
+          <t>صيدلية المبروك ذ.م.م</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Toters</t>
+          <t>Al Madina</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>توترز</t>
+          <t>المدينة المنورة</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Travel Designer Group</t>
+          <t>Al Madina Group</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>مجموعة مصمم السفر</t>
+          <t>مجموعة المدينة</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Trendyol</t>
+          <t>Al Matar Pharmacy</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ترينديول</t>
+          <t>صيدلية المطار</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>TRIO</t>
+          <t>Al Maya Group</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>الثلاثي</t>
+          <t>مجموعة المايا</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Tropicalor</t>
+          <t>Al Meena Medical Center</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>تروبيكالور</t>
+          <t>مركز المينا الطبي</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Tru Boutique Cafe</t>
+          <t>Al Mukhtar Bakery</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ترو بوتيك كافيه</t>
+          <t>مخبز المختار</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Tuk Tuk Thai Restaurant</t>
+          <t>Al Nokhba Group</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>مطعم توك توك تايلاني</t>
+          <t>مجموعة النخبة</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Turf Cafe</t>
+          <t>Al Noor Modern Bakery</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>مقهى العشب</t>
+          <t>مخبز النور الحديث</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>U.S. International Development Finance Corporation (DFC)</t>
+          <t>Al Qunsul Cars Washing</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>المؤسسة الأمريكية لتمويل التنمية الدولية (DFC)</t>
+          <t>القنصل لغسيل السيارات</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>UAE Jiu Jitsu Federation</t>
+          <t>Al Rabat Sweets &amp; Bakery</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>اتحاد الإمارات للجوجيتسو</t>
+          <t>الحلويات والمبوزات الرباط</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Uber</t>
+          <t>Al Rafidain Laundry</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>أوبر</t>
+          <t>مغسلة الرافدين</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Uber Eats</t>
+          <t>Al Rebaina Vending</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>أوبر يأكل</t>
+          <t>بيع الربينة</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Under Armour</t>
+          <t>Al Reyadah Hospitality Services</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>أندر آرمور</t>
+          <t>الريادة لخدمات الضيافة</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Unifree Duty Free</t>
+          <t>Al Safeer Group</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>السوق الحرة من Uni Free</t>
+          <t>مجموعة السفير</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Union Coop</t>
+          <t>Al Salwa Style Baqala</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>تعاونية الاتحاد</t>
+          <t>البقالة على طراز السلوى</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Union Taxi</t>
+          <t>Al Sharq Company</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>تاكسي الاتحاد</t>
+          <t>شركة الشرق</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>United Pharmacy</t>
+          <t>Al Sharq Hospital</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>الصيدلية المتحدة</t>
+          <t>مستشفى الشرق</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>University Hospital Sharjah</t>
+          <t>Al Sultan Sweets</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>مستشفى الجامعة في الشارقة</t>
+          <t>حلويات السلطان</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Valtrans Transportation Systems &amp; Services</t>
+          <t>Al Swaida Modern Bakery</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Valtrans لأنظمة وخدمات النقل</t>
+          <t>مخبز السويداء الحديث</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Vape House UAE</t>
+          <t>Al Tamyuz Stationery &amp; Office Materials</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>بيت البخار الإمارات العربية المتحدة</t>
+          <t>الطاطاسية والمواد المكتبية</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>VEDA Holding</t>
+          <t>Al Telal Gents Fashion</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>فيدا القابضة</t>
+          <t>في تلال للرجال</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Vero Style Gents Salon</t>
+          <t>Al Warqa Medical Center</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>صالون فيرو ستايل للرجال</t>
+          <t>مركز الورقاء الطبي</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Village Restaurant</t>
+          <t>Al Yahar Al Hadeetha Fast Food Restaurant</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>مطعم القرية</t>
+          <t>مطعم اليحار الجديدة للوجبات السريعة</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Village Restaurant</t>
+          <t>Al Yasra General Trading</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>مطعم القرية</t>
+          <t>اليسراء للتجارة العامة</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Virgin</t>
+          <t>Al Zaki Grills</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>عذراء</t>
+          <t>الزكي مشاوي</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Virgin Mobile UAE</t>
+          <t>Al-Futtaim Group</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>فيرجن موبايل الإمارات العربية المتحدة</t>
+          <t>مجموعة الفطيم</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>VIVA</t>
+          <t>Ala Darbk Cafeteria</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>مرحي</t>
+          <t>كافتيريا علاء دربك</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Viva Star Cafe</t>
+          <t>Albert Heijn</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>فيفا ستار كافيه</t>
+          <t>ألبرت هيجن</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Vivian</t>
+          <t>Alchemy Coffee</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ف يفيان</t>
+          <t>قهوة الكيمياء</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Voco</t>
+          <t>ALDO</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>فوكو</t>
+          <t>الدو</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Waayan Housewares Trading</t>
+          <t>AliExpress</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Waayan لتجارة الأدوات المنزلية</t>
+          <t>علي اكسبرس</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Wadi Al Noor Modern Foodstuff</t>
+          <t>All Day</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>وادي النور للأغذية الحديثة</t>
+          <t>طوال اليوم</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Wahat Al Raai Restaurant and Grills</t>
+          <t>All Prints Distributors &amp; Publishers</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>مطعم واحة الراعي والمشاوي</t>
+          <t>جميع المطبوعات والموزعين والناشرين</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Waitrose</t>
+          <t>Allday</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ويتروس</t>
+          <t>طوال اليوم</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Walkers Restaurant</t>
+          <t>Alshaya Group</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>مطعم ووكرز</t>
+          <t>مجموعة الشايع</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>WATCH IT</t>
+          <t>Aman Taxi</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>شاهد ذلك</t>
+          <t>أمان تاكسي</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Wear Mart</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>ارتدي مارت</t>
+          <t>الامازون</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>West Zone Fresh Group</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>مجموعة ويست زون فريش</t>
+          <t>الامازون</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>WeTransfer</t>
+          <t>Amer Centre</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>وي ترانسفير</t>
+          <t>مركز عامر</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>White Deer</t>
+          <t>American Life Insurance Company</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>الغزلان البيضاء</t>
+          <t>الشركة الأمريكية للتأمين على الحياة</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>WHOS'IN</t>
+          <t>Americana Group</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>من في</t>
+          <t>مجموعة أمريكانا</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>WHSmith</t>
+          <t>Anantara Resorts</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>WHSmith</t>
+          <t>منتجعات أنانتارا</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Wondershare</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>وندر شير</t>
+          <t>تفاح</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Wundermart</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>ووندرمارت</t>
+          <t>تفاح</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Wyndham</t>
+          <t>Arab Sweet</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>ويندهام</t>
+          <t>حلويات العرب</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Xpress Gent's Salon</t>
+          <t>Arabella Pharmacy</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>صالون إكسبرس للرجال</t>
+          <t>صيدلية أرابيلا</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>yallacompare</t>
+          <t>Arabia Taxi</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>يلا كومبين</t>
+          <t>تاكسي العرب</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Yango</t>
+          <t>Arabian Grill</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>يانغو</t>
+          <t>أرابيان جريل</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Yas Mart</t>
+          <t>Arabisk Vape</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>مسيرة الحداد</t>
+          <t>أرابيسك فيب</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>You+ Pharmacy &amp; Beauty</t>
+          <t>Aramex</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>You+ الصيدلية والجمال</t>
+          <t>أرامكس</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Your Address Coffee</t>
+          <t>Armani</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>عنوانك القهوة</t>
+          <t>أرماني</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Armed Forces Cooperative Society</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>يوتيوب</t>
+          <t>الجمعية التعاونية للقوات المسلحة</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Zain Cura Medical Center LLC</t>
+          <t>Arsalan Hairdressing Salon</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>مركز زين كورا الطبي ذ.م.م</t>
+          <t>صالون أرسلان لتصفيف الشعر</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Zain Roastery</t>
+          <t>Aseer Time Group</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>محمصة زين</t>
+          <t>مجموعة عسير تايم</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Zam Zam Gallery Accessories</t>
+          <t>Ashtel Group</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>اكسسوارات معرض زم زم</t>
+          <t>مجموعة أشتل</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Zara</t>
+          <t>Asia Mobile Phone</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>زارا</t>
+          <t>آسيا الهاتف المحمول</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Zenith Supermarket</t>
+          <t>Aster DM Healthcare</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Zenith سوبر ماركت</t>
+          <t>أستر دي إم للرعاية الصحية</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>ZENNER Middle East</t>
+          <t>Aster DM Healthcare</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>زينر الشرق الأوسط</t>
+          <t>أستر دي إم للرعاية الصحية</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Ziina</t>
+          <t>Avanee Home Care</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>زينة</t>
+          <t>أفاني للرعاية المنزلية</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Zohoor Al Reef</t>
+          <t>B.Laban</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>زهور الريف</t>
+          <t>ب. لبن</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
+          <t>Baby Land Trading LLC</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>بيبي لاند للتجارة ذ.م.م</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Bahart Food House</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>بهارت فود هاوس</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Bait Al Marjan</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>بيت المرجان</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Bait Al Shay</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>بيت الشاي</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Bait Al Shay</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>بيت الشاي</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Bait El Khetyar</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>بيت الخطيار</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Bani Yas Cooperative Society</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>جمعية بني ياس التعاونية</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Bapco Refining</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>بابكو للتكرير</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Barbeque Nation</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>أمة الشواء</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Barns Cafe</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>مقهى بارنز</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Baskin-Robbins</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>باسكن روبنز</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Bath &amp; Body Works</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>باث &amp; بودي وركس</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Bayara</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>بيارا</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Bayut</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>بيوت</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Bazerkan Restaurant</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>مطعم بازركان</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Bedashing Beauty Lounge</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>بيداشينغ بيوتي لاونج</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Bentley Kitchen</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>مطبخ بنتلي</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Bigmart</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>بيج مارت</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Bin Bakhit Contracting</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>بن بخيت للمقاولات</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Binance</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>بينانس</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>BinSina Pharmacy</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>صيدلية بن سينا</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Bitfi</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>بيتفي</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Black Clover</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>البرسيم الأسود</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Black Rose Laundry</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>غسيل بلاك روز</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Bloomr</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>بلومر</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Blue Mart</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>بلو مارت</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Body &amp; Soul Health Club</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>نادي الجسم والروح الصحي</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Bolt</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>مسمار</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Bon Food Royal</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>بون فود رويال</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Booking.com</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Booking.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Brand Dubai</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>براند دبي</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Buffalo Wild Wings</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>أجنحة الجاموس البرية</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Bulgari</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>بلغاري</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Burberry</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>بربري</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Burger Junction</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>برجر جانكشن</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Burger King</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>برجر كنج</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Burj Al Arab</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>برج العرب</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Burjeel Hospital</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>مستشفى برجيل</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Bwabat Al Shahba</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>بوابت الشهباء</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Caffè Nero</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>قهوة سوداء</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>CAFFEINO</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>كافينو</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>CAFU</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>إنجاز</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Cake Palace</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>كيك بالاس</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>CaliBurger</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>كالي برجر</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Caphe Specialty Coffee</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>قهوة كاب المتخصصة</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Capital Catering + Services</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>كابيتال للتموين + الخدمات</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Capital.com</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Capital.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Careem</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>كريم</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Careem</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>كريم</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Careem</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>كريم</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Careem DineOut</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>كريم ديني أوت</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Caribou Coffee</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>كاريبو كوفي</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Cartel Coffee Roasters</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>كارتل محمصات القهوة</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Cavo</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>كابل</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>CDKeys</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>CDKeys</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>CG Management DMCC</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>إدارة الحوكمة (م.د.م.س)</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Channels by STC</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>قنوات STC</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Chevron Corporation</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>شركة شيفرون</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Chez Moe</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>في Moe's</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Chicken Hut</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>تشيكن هت</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Chikex Fried Chicken</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>دجاج تشيكس مقلي</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Chocolala</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>شوكولالا</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Choithrams</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>شويترامس</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>CHS Community Pharmacy</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>صيدلية مجتمع CHS</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Cinemacity Al Qana</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>سينما سيتي القناة</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Cinnabon</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>سينابون</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Circle K</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>الدائرة ك</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Citi Taxi LLC</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>سيتي تاكسي ذ.م.م</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>CITY NAS CENTER (SPS - LLC)</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>مركز سيتي ناس (SPS - ذ.م.م)</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>City One Shopping Centre</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>مركز تسوق سيتي وان</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Claro Specialty Coffee</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>قهوة كلارو المتخصصة</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Cloud Spaces</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>المساحات السحابية</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Coca-Cola</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>الكوك</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Coffee 55</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>قهوة 55</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Copthorne Hotels and Resorts</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>فنادق ومنتجعات كوبثورن</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Corniche Bakeries and Markets</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>مخابز وأسواق الكورنيش</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Costa Coffee</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>كوستا كوفي</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Cotton On</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>قطن على</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>COYA</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>كويا</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Cravia Inc.</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>شركة كرافيا</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Curry Chatti</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>كاري شاتي</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Daal Chawal</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>دال شوال</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Daiso Japan</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>دايسو اليابان</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>DaleelStore</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>دليل ستور</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Dallmayr</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>دالماير</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Dampa Feast</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>عيد دامبا</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Dar Al Jamal Ladies Salon</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>صالون دار الجمال للسيدات</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Dar Al Karama</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>دار الكرامة</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Dar Al Mandi &amp; Madhbi</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>دار المندي والمذابي</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Dar Al Mashreq Smoking Equipments</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>دار المشرق لمعدات التدخين</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>DarLukman</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>دارلقمان</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Day to Day</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>يوما بعد يوم</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Dazzler Gents Wear</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>ملابس دازلر للرجال</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Deichmann</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>ديخمان</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Deliveroo</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>ديليفرو</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Department of Economic Development - RAK</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>دائرة التنمية الاقتصادية - رأس الخيمة</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Department of Municipalities and Transport</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>دائرة البلديات والنقل</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Department of Municipalities and Transport</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>دائرة البلديات والنقل</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Depresso Cafe</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>مقهى ديبريسو</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Deslo Centre</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>مركز ديسلو</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Digital Dubai</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>دبي الرقمية</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Doctor Vending LLC</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>دكتور فيند ذ م م</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Dolce &amp; Gabbana</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>دولتشي آند غابانا</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Dollar Plus</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>دولار بلس</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Domino's Pizza</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>بيتزا دومينوز</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Dots Café</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>دوتس كافيه</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Dr. Jaison's Power Gym</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>دكتور جايسون باور جيم</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Dr. Nutrition</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>دكتور نيوترشن</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Dream Dubai</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>دريم دبي</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Dreamland Aqua Park</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>دريم لاند أكوا بارك</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Dribble Cafe</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>مقهى المراوغة</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Drinkit</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>المشروبات</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Drivu</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>سوق</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Dubai Butterfly Garden</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>حديقة الفراشات في دبي</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Dubai Charity Association</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>جمعية دبي الخيرية</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Dubai Electricity &amp; Water Authority</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>هيئة كهرباء ومياه دبي</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Dubai Festival City Mall - Market Island</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>دبي فستيفال سيتي مول - ماركت آيلاند</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Dubai Holding Group</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>مجموعة دبي القابضة</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Dubai Integrated Economic Zones Authority</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>سلطة دبي الاقتصادية المتكاملة</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Dubai International Hotel</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>فندق دبي الدولي</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Dubai Islamic Bank</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>بنك دبي الإسلامي</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Dubai Parks and Resorts</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>دبي باركس آند ريزورتس</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Dubai Taxi Corporation</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>مؤسسة تاكسي دبي</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Dukkan</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>دكان</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Dunkin'</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>دانكن</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>e&amp; (formerly Etisalat)</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>e &amp; (اتصالات سابقا)</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Earth Supermarket</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>سوبر ماركت الأرض</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>East Japan Railway Company</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>شركة سكة حديد شرق اليابان</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>EasyPark Group</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>مجموعة إيزي بارك</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Eat and Drink Restaurants</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>مطاعم تناول الطعام والشراب</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Elegance Style</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>أسلوب الأناقة</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>EMCO Laundry &amp; Dry Cleaning Co.</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>شركة إمكو للغسيل والتنظيف الجاف</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Emirates Airlines</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>طيران الإمارات</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Emirates Development Bank</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>مصرف الإمارات للتنمية</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Emirates European Hospital</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>مستشفى الإمارات الأوروبي</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Emirates Gallery Discounts MALL</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>خصومات جاليري الإمارات مول</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Emirates Golf Club</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>نادي الإمارات للجولف</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Emirates Integrated Telecommunications Company (du)</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>شركة الإمارات للاتصالات المتكاملة (دو)</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Emirates Markets General Trading LLC</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>أسواق الإمارات للتجارة العامة ذ.م.م</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Emirates National Oil Company</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>شركة بترول الإمارات الوطنية</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Emirates Post</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>بريد الإمارات</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Emirates Professional Business Centre</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>مركز الإمارات للأعمال المهنية</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Emirates Red Crescent</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>الهلال الأحمر الإماراتي</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Emirates Sea Restaurants</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>مطاعم بحر الإمارات</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Emirates Secretarial Services</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>خدمات السكرتارية في الإمارات</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Envato</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>إنفاتو</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>EPPCO</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>إيبكو</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>ER Fashion</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>أزياء ER</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Erth</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>إرث</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Etihad Airport Services</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>خدمات الاتحاد للمطارات</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Etihad Airways</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>الاتحاد للطيران</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Etihad Credit Bureau</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>مكتب الاتحاد للمعلومات الائتمانية</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Etihad Water and Electricity</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>الاتحاد للماء والكهرباء</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Etisalat</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>اتصالات</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Every Day Fruits &amp; Vegetables</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>كل يوم فواكه وخضروات</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Excel Enterprises LLC</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>إكسل إنتربرايز ذ.م.م</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Expedia Group</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>مجموعة إكسبيديا</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Express Al Madeena Hypermarket LLC</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>اكسبرس المدينة هايبر ماركت ذ.م.م</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Exquisite Trading LLC</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>إكسوسييت للتجارة ذ.م.م</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Falafil Al Rabiah Al Khadra</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>فلافل الربيعة الخضراء</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Falcon Pack</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>حزمة الصقر</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Fanan Fashion</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>فانان فاشون</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Fantasy Bounce Toys for Entertainment</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>ألعاب الخيال ترتد للترفيه</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Faraj Fund</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>صندوق الفرج</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Fassco Catering Services</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>فاسكو لخدمات التموين</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Fazaa</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>فزعة</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Feathers</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>ريش</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Federal Authority for Identity, Citizenship, Customs &amp; Port Security</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>الهيئة الاتحادية للهوية والجنسية والجمارك وأمن المنافذ</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>FiLLi Cafe</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>مقهى فيلي</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>FiLLi Select</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>اختيار FiLLi</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Firas Sweets</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>حلويات فراس</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>First Abu Dhabi Bank</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>بنك أبوظبي الأول</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>FirstCry</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>فيرست كراي</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Five Guys</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>خمسة رجال</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Floward</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>فلاورد</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>flydubai</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>فلاي دبي</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Foloosi</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>فولوز</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Food Nation Catering Services LLC</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>فود نيشن لخدمات التموين ذ.م.م</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Foods Gate Company</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>شركة فودز جيت</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Fortune Group of Hotels</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>مجموعة فنادق فورتشن</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Fresh Cart</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>عربة فريش</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>FreshToHome</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>فريش تو هوم</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Fruits Monesh</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>فواكه مونيش</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Fujairah Police</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>شرطة الفجيرة</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Fujiyama</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>فوجياما</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Fullstop Trading</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>تداول فولستوب</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Fun City</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>مدينة المرح</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>G Hospitality</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>جي للضيافة</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Gala Supermarket</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>سوبر ماركت Gala</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Galadari Brothers</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>كلداري إخوان</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Gamma</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>غاما</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>GANT</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>جانت</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Gazebo Restaurant</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>مطعم جازيبو</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>GCR Group of Restaurants</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>مجموعة مطاعم GCR</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>GEMS Education</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>جيمس للتعليم</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Gift Zone Gift Trading</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>منطقة الهدايا لتجارة الهدايا</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Giorgio Armani</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>جورجيو أرماني</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Glitch Cafe</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>مقهى خلل</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Global Village Dubai</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>القرية العالمية دبي</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>GMG</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>جي إم جي</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Gnd Rask</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>Gnd Rask</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Golden Bon Burger Cafeteria</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>كافيتريا جولدن بون برجر</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Golden Chicken Cafeteria</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>كافيتريا الدجاج الذهبي</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Golden Light Cafeteria</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>كافيتريا الضوء الذهبي</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>جوجل</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Gorat Gahwa</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>غورات قهوة</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Gourmet House</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>جورميه هاوس</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Grand Cafe Boulevard</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>جراند كافيه بوليفارد</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Grand Mart</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>جراند مارت</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Grandiose</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>متكلفا</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Green and Clean</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>أخضر ونظيف</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Green Gift Department Store LLC</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>متجر الهدايا الخضراء ذ م م</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Greens International</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>جرينز انترناشيونال</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Grill It</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>شويها</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Gulf Pastry</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>معجنات الخليج</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Gumroad</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>جومرود</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>GymNation</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>جيم نيشن</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>H&amp;M</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>اتش آند إم</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>HA Gents Salon</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>صالون HA للرجال</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Hadoota Masreya</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>حدوطة مصرية</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Hair King Salon</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>صالون هير كينج</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>HaiyaTea</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>شاي هيا</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Hamburgheni</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>ساو باولو</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Hamdan Bin Mohammed Smart University</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>جامعة حمدان بن محمد الذكية</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Han Waqt Al Shay</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>هان وقت الشاي</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Happy Burger</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>هابي برجر</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Hardee's</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>هارديز</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Haris Marquqa</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>حارس مرقوقة</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Harley Street Medical Centre</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>مركز هارلي ستريت الطبي</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Harman House</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>هارمان هاوس</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Harrods</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>هارودز</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>HashTag Cafe &amp; Restaurant</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>مقهى ومطعم هاشتاغ</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>HAWK Billiards Cafe</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>هوك بلياردو كافيه</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Hayyak</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>حياك</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Hero Tea</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>شاي البطل</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Hi Fresh Cafeteria</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>كافيتريا مرحبا فريش</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>High Star Restaurant</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>مطعم هاي ستار</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Highway Q Supermarket</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>هايويست كيو سوبر ماركت</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Hili Coffee House</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>مقهى هيلي</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Home Bakery</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>مخبز المنزل</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Home Centre</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>هوم سنتر</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>House of Tea</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>بيت الشاي</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Human Appeal International</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>النداء الإنساني الدولي</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>HungerStation</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>هنقرستيشن</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Hyperama</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>هايبراما</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>ICONS Coffee Couture</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>أيقونات القهوة الراقية</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>iHerb</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>اي هيرب</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>IKEA</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>ايكيا</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>InstaShop</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>إنستا شوب</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Integrated Transport Centre</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>مركز النقل المتكامل</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>International Modern Hospital</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>المستشفى الدولي الحديث</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Iron Palace Club</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>نادي القصر الحديدي</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Istanbul Supermarket</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>سوبر ماركت اسطنبول</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>IVORY CAFE</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>مقهى ايفوري</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Izakaya</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>إيزاكايا</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Jabal Alnoor</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>جبل النور</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Jamr &amp; Hattab Restaurants Group</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>مجموعة مطاعم جمر وحطاب</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Jawaker</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>جواكر</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Jenan</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>جنان</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Joe's Café</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>مقهى جو</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Joga</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>لعب</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>John Lewis</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>جون لويس</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>JollyMax</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>جولي ماكس</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Joud Coffee</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>قهوة جود</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Jumeirah Fish Market</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>سوق جميرا للأسماك</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Jumeirah Golf Estates</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>عقارات جميرا للجولف</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Justlife</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>جست لايف</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Kabana Restaurant &amp; Cafe</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>مطعم ومقهى كابانا</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Karkafi Hair</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>الكركفي هير</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Kava &amp; Chai</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>الكافا وشاي</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Keerthi Restaurant</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>مطعم كيرثي</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>KFC</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>كنتاكي فرايد تشيكن</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Khau Galli Restaurant DMCC</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>مطعم خاو جالي م.د.م.س</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Khaymat Zaman Shopping</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>خيمة زمان للتسوق</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Kids Fun House Green Park</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>كيدز فن هاوس جرين بارك</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Kiehl's</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>كيلز</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>KIKO MILANO</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>كيكو ميلانو</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>King Fahd Causeway Authority</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>هيئة جسر الملك فهد</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Kishmish</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>كشميش</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>KM Trading</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>تداول KM</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>Knead Bakery &amp; Patisserie</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>مخبز ومعجنات</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Knot Bakehouse</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>Knot Bakehouse</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Kottakkal Ayurvedic Treatment Centre</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>مركز كوتاكال لعلاج الأيورفيدا</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Koukh Al Shay</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>كوك الشاي</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>Krispy Kreme</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>كريسبي كريم</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>Kubza Baker</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>كوبزة بيكر</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>La Petite Cafe</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>لا بيتيت كافيه</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Labelle</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>لابيل</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>Ladurée</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>لادوريه</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>Laffah Restaurant</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>مطعم لفة</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>Las Tapas Cafe</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>مقهى لاس تاباس</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>Last Chance</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>الفرصة الأخيرة</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>Laundryheap</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>كومة الغسيل</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>Lavish Perfumes</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>عطور فخمة</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>Lazada</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>حلقه</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>Le Chocola</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>لو شوكولا</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>Le Voyage Beauty &amp; Spa</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>لو فوياج بيوتي آند سبا</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>Lebanese Roaster</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>محمصة لبنانية</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>Lezof Auto Services</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>لزوف لخدمات السيارات</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>Life Pharmacy</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>صيدلية لايف</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>LikeCard</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>لايك كارد</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>Lilith Games</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>ألعاب ليليث</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>Lio Medical Center</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>مركز ليو الطبي</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>Loewe</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>لوي</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>Lotus Star Gifts</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>هدايا نجمة اللوتس</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>Loyal Mini Mart</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>لويال ميني مارت</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>LuLu Group International</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>مجموعة اللولو الدولية</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>Madarek LLC</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>مدارك ذ.م.م</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>MADO</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>مادو</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>Mahashi Time</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>وقت محشي</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>Mai Dubai</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>ماي دبي</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>Mai Himmaak Cafeteria</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>كافتيريا ماي هماق</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>Maids.cc</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>Maids.cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>Maison Goyard</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>ميزون جويارد</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>Majid Al Futtaim Holding</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>ماجد الفطيم القابضة</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>Make Up Atelier</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>أتيليه المكياج</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>Mall Mart</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>مول مارت</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>Manaesho by Ed</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>مانيشو من إد</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>Mara Restaurants</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>مطاعم مارا</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>Maraheb Restaurant</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>مطعم مرابط</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>Margin Coffee</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>قهوة المارجان</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>Marks &amp; Spencer</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>ماركس آند سبنسر</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>Masafi</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>مسافي</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>Mawgif</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>موجيف</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>Max Facilities Management L.L.C</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>ماكس لإدارة المرافق ذ.م.م</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>MBC Group</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>مجموعة MBC</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>Med7 Healthcare Group</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>مجموعة Med7 للرعاية الصحية</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>Media One Hotel</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>فندق ميديا وان</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>Medicina Group of Pharmacies</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>مجموعة صيدليات ميديسينا</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>Medicina Pharmacy</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>صيدلية ميديسينا</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>Mediclinic</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>ميديكلينيك</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>Mega Mart</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>ميجا مارت</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>مرسيدس بنز</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>Mercurius International LLC</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>ميركوريوس إنترناشيونال ذ.م.م</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>Meta Social</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>ميتا سوشيال</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>Metrofitt</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>متروفيت</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>Mezyad Medical Center</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>مركز مزيد الطبي</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>Microsoft</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>مايكروسوفت</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>MINISO</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>مينيسو</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>Ministry of Foreign Affairs and International Cooperation</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>وزارة الخارجية والتعاون الدولي</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>Ministry of Human Resources &amp; Emiratisation</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>وزارة الموارد البشرية والتوطين</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>Ministry of Interior</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>وزارة الداخلية</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>Miral</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>ميرال</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>Mishwar</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>مشوار</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>Miss Lily's</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>ملكة جمال ليلي</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>MKM Foodstuff Trading LLC</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>إم كي إم لتجارة المواد الغذائية ذ.م.م</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>Modern Family Pharmacy</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>صيدلية الأسرة الحديثة</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>Mokavit</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>موكافيت</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>Molton Brown</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>مولتون براون</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>Moon Light Auto</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>ضوء القمر التلقائي</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>Moorfields Eye Hospital</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>مستشفى مورفيلدز للعيون</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>MRM Trimming Gents Salon</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>MRM التشذيب صالون الرجال</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>MrSteam</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>مستر ستيم</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>Ms Max</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>السيدة ماكس</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>Mubarak Hypermarket</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>مبارك هايبر ماركت</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>Mumuso</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>غدا</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>Mumzworld</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>ممزورلد</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>Muscat Pharmaceutical Trading LLC</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>مسقط لتجارة الأدوية ذ.م.م</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>My Sandwich Cafeteria</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>كافتيريا ماي ساندويتش</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>My Special Gift</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>هديتي الخاصة</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>Nahdi Medical Company</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>شركة النهدي الطبية</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>Najmat Abu Hail Grocery</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>بقالة نجمة أبو هيل</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>Nammos</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>ناموس</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>Namshi</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>نمشي</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>National Health Insurance Company – Daman</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>الشركة الوطنية للضمان الصحي – ضمان</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>National Parking Company</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>الشركة الوطنية لمواقف السيارات</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>National Taxi L.L.C</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>ناشيونال تاكسي ذ.م.م</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>Nayaab Haandi</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>نياب هاندي</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>Nesto Group</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>مجموعة نستو</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>Nesto Hypermarket</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>نستو هايبر ماركت</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>Netflix</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>نيتفليكس</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>Network International</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>الشبكة الدولية</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>New Best Burger Cafe</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>نيو بيست برجر كافيه</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>New Delma Supermarket</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>سوبر ماركت نيو دلما</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>New Nasrin Baqala</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>نسرين بقالة الجديدة</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>Next</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>مقبل</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>Nightjar Coffee Roasters</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>محمصات قهوة Nightjar</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>Nikki Beach</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>بيتش</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>Nine Cafe</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>ناين كافيه</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>NMC Healthcare</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>إن إم سي للرعاية الصحية</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>No verifiable Dubai City Golf Club found in search results</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>لم يتم العثور على نادي دبي سيتي للجولف يمكن التحقق منه في نتائج البحث</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>Nomod</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>نومود</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>Noon</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>الظهيرة</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>noon</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>الظهيرة</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>Noon</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>الظهيرة</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>Noon Daily</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>نون ديلي</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>Noor Al Izdihar Supermarket</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>نور الازدهار سوبر ماركت</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>Noor Al Mandi Restaurant</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>مطعم نور المندي</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>Noor Ladies Salon</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>صالون نور للسيدات</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>noqodi</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>يوم القرار</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>NYX Professional Makeup</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>NYX مكياج احترافي</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>OLAB Coffee Shop</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>مقهى OLAB</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>On Time Minimarket</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>في الوقت المحدد ميني ماركت</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>One Life Kitchen and Cafe</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>مطبخ ومقهى ون لايف</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>Optim Technologies Group</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>مجموعة أوبتيم تكنولوجيز</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>Oregano Restaurants</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>مطاعم الأوريجانو</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>Ounass</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>أناس</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>Oxygen Gyms</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>صالات الأكسجين</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>Padel Square</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>ساحة البادل</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>PAL Cooling Holding</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>PAL التبريد القابضة</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>Palm Group</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>مجموعة النخيل</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>Pan Emirates Home Furnishings</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>بان الإمارات للمفروشات المنزلية</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>Panda Retail</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>باندا للبيع بالتجزئة</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>Paragon Restaurant</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>مطعم باراجون</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>Parfum.ae</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>Parfum.ae</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>Parkonic</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>باركونيك</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>Party Zone LLC</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>بارتي زون ذ.م.م</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>Patchi</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>باتشي</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>PAUL</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>بول</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>PayBy</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>الدفع</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>PayPal</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>PayPal</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>Pedal Cycling &amp; Coffee</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>دواسة ركوب الدراجات والقهوة</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>Pets Oasis</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>واحة الأليفة</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>Philippine Supermarket</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>سوبر ماركت فلبيني</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>Photo Magic International</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>فوتو ماجيك انترناشيونال</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>Physiomins Beauty Centre</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>مركز فيزيومينز للتجميل</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>Pinkberry</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>بينك بيري</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>Pizza Hut</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>بيتزا هت</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>Pizza World</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>بيتزا وورلد</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>Platinumlist</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>القائمة البلاتينية</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>PlayStation</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>بلاي ستيشن</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>POFA</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>خطم</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>Prestige Restaurant &amp; Cafe Co.</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>شركة مطعم ومقهى برستيج</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>Prime Healthcare Group</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>مجموعة برايم للرعاية الصحية</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>Prime Hospitality LLC</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>برايم للضيافة ذ.م.م</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>PUBG MOBILE</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>ببجي موبايل</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>Q Mobility</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>س التنقل</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>Qasr Al Awani</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>قصر العواني</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>Qatar Insurance Company</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>شركة قطر للتأمين</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>Qlub</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>قلوب</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>R&amp;B Fashion</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>أزياء R &amp; B</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>Rafa Medical Center</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>مركز رافا الطبي</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>Rain Cafe</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>مقهى المطر</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>Rainbow Hospitality</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>قوس قزح للضيافة</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>Raju Omlet</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>عجة راجو</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>RAK Academy</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>أكاديمية رأس الخيمة</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>RAK National Markets</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>أسواق رأس الخيمة الوطنية</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>Ramez Group</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>مجموعة رامز</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>Ramla Group</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>مجموعة الرملة</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>Ras Al Khaimah Economic Zone (RAKEZ)</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>منطقة رأس الخيمة الاقتصادية (راكز)</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>Ras Al Khaimah Municipality</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>بلدية رأس الخيمة</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>Rashed Ali Cafeteria</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>كافتيريا راشد علي</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>Rashed Ali Mohammed Cafeteria</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>كافتيريا راشد علي محمد</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>Rashid Ali Hassan Cafeteria</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>كافتيريا راشد علي حسن</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>Recharge.com</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>Recharge.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>Red Trees</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>الأشجار الحمراء</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>Response Plus Holding PJSC</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>ريسكور بلس القابضة ش.م.ع</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>Retro7</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>ريترو7</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>Ribbonaira The Floral Boutique</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>Ribbonaira ذا فلورال بوتيك</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>Rich &amp; Fresh Supermarket</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>ريتش آند فريش سوبر ماركت</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>Ritual Cafe &amp; Studio</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>مقهى واستوديو ريتوال</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>Roads and Transport Authority</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>هيئة الطرق والمواصلات</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>Rotana Hotels</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>فنادق روتانا</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>Royal Gulf Hypermarket</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>هايبر ماركت رويال الخليج</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>Royal Palace Furniture Trading Company LLC</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>شركة القصر الملكي لتجارة الأثاث ذ.م.م</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>RSH (Middle East) LLC</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>آر إس إتش (الشرق الأوسط) ذ.م.م</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>Rumaan Hyderabad Restaurant</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>مطعم رومان حيدر أباد</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>Rumailah Farm</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>مزرعة الرميلة</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>Saarangaa Bhojan Shala</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>قاعة الطعام</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>Saddle Café</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>مقهى السرج</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>Safa Express Supermarket</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>صفا اكسبريس سوبر ماركت</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>Safeer HyperMarket</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>سفير هايبر ماركت</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>Sahari Hatta Mobile Phones</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>سحاري حتا للهواتف المحمولة</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>Sakura Beauty Spa</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>ساكورا بيوتي سبا</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>Salam Studio &amp; Stores</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>سلام ستوديو ومتاجر</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>SALT</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>ملح</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>Sambox</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>سامبوكس</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>Santorini Cafe</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>مقهى سانتوريني</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>Saving Home Gifts Trading</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>توفير تجارة الهدايا المنزلية</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>SD Global Services LLC</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>إس دي جلوبال سيرفيسز ذ.م.م</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>Second Cup</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>الكأس الثانية</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>SEHA Pharmaceuticals</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>شركة صحة للأدوية</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>Selection Cafe</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>مقهى الاختيار</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>Sephora</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>سيفورا</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>Shaaz Mart</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>شاز مارت</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>Shaheen Al Jadeed Supermarket</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>شاهين الجديد سوبر ماركت</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>Shake Shack</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>شيك شاك</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>Shams</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>شمس</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>Shamseen Bakeries</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>مخابز شمسين</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>Sharjah Electricity, Water and Gas Authority (SEWA)</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>هيئة كهرباء ومياه وغاز الشارقة</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>Sharjah Finance Department</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>دائرة المالية بالشارقة</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>Shater Al Shay</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>شاطر الشاي</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>Shawarma Al khair</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>شاورما الخير</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>Shawaya Daaoun</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>شوايا ضعون</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>Sheikh Al Karak</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>الشيخ الكرك</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>SHEIN</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>شي إن</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>Shell</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>صدفة</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>Shell Select</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>تحديد شل</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>Shot Specialty Cafe</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>مقهى شوت التخصصي</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>Shutterstock</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>شترستوك</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>Simply Beauty Ladies Beauty Center</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>مركز سيمبلي بيوتي للتجميل للسيدات</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>Skrill</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>سكريل</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>SLAB Test Kitchen</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>مطبخ اختبار SLAB</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>Smart Canteen UAE</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>كانتين ذكي الإمارات</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>Smart Collection</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>المجموعة الذكية</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>Smart Cube Information Systems</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>أنظمة معلومات المكعبات الذكية</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>Smart Dubai</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>دبي الذكية</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>Smart Office Equipment Trading</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>تجارة المعدات المكتبية الذكية</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>Smashburger</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>سماش برجر</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>Smiles</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>الابتسامات</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>Soghaat Sweets</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>حلويات سوغات</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>Space Cup</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>كأس الفضاء</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>SPAR</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>مدخرات</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>Special Clean Car Care</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>العناية الخاصة بالسيارة النظيفة</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>Speed Parts</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>أجزاء السرعة</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>Speedex Group</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>مجموعة سبيدكس</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>Splash</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>البدايه</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>Spotify</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>سبوتيفي</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>Square Enix</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>سكوير إنيكس</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>Star Gallery Mart</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>ستار غاليري مارت</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>Star Palace Cafeteria</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>كافيتريا قصر النجوم</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>Starbucks</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>ستاربكس</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>Stitch In Time Tailoring</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>غرزة في الوقت المناسب الخياطة</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>StyleMe</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>ستايل مي</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>Subway</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>مترو</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>Sun &amp; Moon Supermarket</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>سوبر ماركت سن آند مون</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>Sun Birds Cafeteria</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>كافيتريا صن بيردز</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>Sunglass Hut</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>كوخ النظارات الشمسية</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>Supercare Pharmacy</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>صيدلية سوبر كير</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>Symphony</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>السمفونيه</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>Tabaq Delivery Services</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>خدمات التوصيل في مطعم</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>Takside POS</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>نقاط البيع Takside</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>Talabat</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>طلبات</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>Talha Grocery</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>بقالة طلحة</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>Tamara</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>تمارا</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>TAMM Group LLC</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>مجموعة تام ذ.م.م</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>TangoMe</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>تانغومي</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>Tanor Zaman</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>وقت تانور</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>Taobao</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>تاوباو</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>Tap Payments</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>انقر على الدفعات</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>TAQA Distribution (Al Ain Distribution Company)</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>شركة طاقة للتوزيع (شركة العين للتوزيع)</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>Tareeq Al Khalidia Auto Accessories Trading</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>طارق الخالدية لتجارة اكسسوارات السيارات</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>tashas</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>تاشاس</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>Tasjeel</t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>تسجيل</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>Tasty Burger</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>تيستي برجر</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>Tasty Grill Restaurant</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>مطعم تيستي جريل</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>Tawasul Transport</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>تواصل للنقل</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>Tayba Gourmet</t>
+        </is>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>طيبة جورميه</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>Tchibo</t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>تشيبو</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>Tea Break</t>
+        </is>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>استراحة شاي</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>Tea Junction Express</t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>شاي جانكشن إكسبريس</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>Tea Time</t>
+        </is>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>وقت الشاي</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>Tea Time</t>
+        </is>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>وقت الشاي</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>Teeffee Restaurant and Cafe</t>
+        </is>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>مطعم ومقهى تيفي</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>Tek Travels</t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>تيك ترافيلز</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>Temu</t>
+        </is>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>قبل</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>TEN 11 Coffee Boutique</t>
+        </is>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>بوتيك TEN 11 Coffee</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>Texas Chicken</t>
+        </is>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>دجاج تكساس</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>The Arts Club</t>
+        </is>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>نادي الفنون</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>The Authority of Social Contribution - Ma'an</t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>هيئة المساهمة المجتمعية - معا</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>The Avenue Steakhouse</t>
+        </is>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>ذا أفينيو ستيك هاوس</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>The Blue Box</t>
+        </is>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>الصندوق الأزرق</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>The Cheesecake Factory</t>
+        </is>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>ذا تشيز كيك فاكتوري</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>The Chefz</t>
+        </is>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>ذا شيفز</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>The Chickery</t>
+        </is>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>ذا تشيكري</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>The Diamond Arrow Car Cleaning</t>
+        </is>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>تنظيف السيارة السهم الماسي</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>The Els Club</t>
+        </is>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>نادي إلس</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>THE FACE SHOP</t>
+        </is>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>متجر الوجه</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>The First Group</t>
+        </is>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>المجموعة الأولى</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>The Fresh Bazaar</t>
+        </is>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>ذا فريش بازار</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>The GYM Sports Center</t>
+        </is>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>مركز جيم الرياضي</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>The Independent Food Company</t>
+        </is>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>الشركة المستقلة للأغذية</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>The Midi Store</t>
+        </is>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>متجر ميدي</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>The Ruler's Court</t>
+        </is>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>ديوان الحاكم</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>The Valet LLC</t>
+        </is>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>ذا الخادم ذ.م.م</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>Three Star Fashions W L L</t>
+        </is>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>أزياء ثري ستار دبليو إل</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>Thumbay Group</t>
+        </is>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>مجموعة ثومبي</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>Tim Hortons</t>
+        </is>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>تيم هورتنز</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>Tinder</t>
+        </is>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>حراق</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>Ting Irie</t>
+        </is>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>تينغ</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>Tips &amp; Toes</t>
+        </is>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>نصائح وأصابع القدم</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>Tony Roma's</t>
+        </is>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>توني روما</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>Torino Moda Style</t>
+        </is>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>أسلوب أزياء تورينو</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>Tory Burch</t>
+        </is>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>توري بورش</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>Toters</t>
+        </is>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>توترز</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>Travel Designer Group</t>
+        </is>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>مجموعة مصمم السفر</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>Trendyol</t>
+        </is>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>ترينديول</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>TRIO</t>
+        </is>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>الثلاثي</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>Tropicalor</t>
+        </is>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>تروبيكالور</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>Tru Boutique Cafe</t>
+        </is>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>ترو بوتيك كافيه</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>Tuk Tuk Thai Restaurant</t>
+        </is>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>مطعم توك توك تايلاني</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>Turf Cafe</t>
+        </is>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>مقهى العشب</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>U.S. International Development Finance Corporation (DFC)</t>
+        </is>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>المؤسسة الأمريكية لتمويل التنمية الدولية (DFC)</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>UAE Jiu Jitsu Federation</t>
+        </is>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>اتحاد الإمارات للجوجيتسو</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>Uber</t>
+        </is>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>أوبر</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>Uber Eats</t>
+        </is>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>أوبر يأكل</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>Under Armour</t>
+        </is>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>أندر آرمور</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>Unifree Duty Free</t>
+        </is>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>السوق الحرة من Uni Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>Union Coop</t>
+        </is>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>تعاونية الاتحاد</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>Union Taxi</t>
+        </is>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>تاكسي الاتحاد</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>United Pharmacy</t>
+        </is>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>الصيدلية المتحدة</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>University Hospital Sharjah</t>
+        </is>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>مستشفى الجامعة في الشارقة</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>Valtrans Transportation Systems &amp; Services</t>
+        </is>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>Valtrans لأنظمة وخدمات النقل</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>Vape House UAE</t>
+        </is>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>بيت البخار الإمارات العربية المتحدة</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>VEDA Holding</t>
+        </is>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>فيدا القابضة</t>
+        </is>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>Vero Style Gents Salon</t>
+        </is>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>صالون فيرو ستايل للرجال</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>Village Restaurant</t>
+        </is>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>مطعم القرية</t>
+        </is>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>Village Restaurant</t>
+        </is>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>مطعم القرية</t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>Virgin</t>
+        </is>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>عذراء</t>
+        </is>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>Virgin Mobile UAE</t>
+        </is>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>فيرجن موبايل الإمارات العربية المتحدة</t>
+        </is>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>VIVA</t>
+        </is>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>مرحي</t>
+        </is>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>Viva Star Cafe</t>
+        </is>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>فيفا ستار كافيه</t>
+        </is>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>Vivian</t>
+        </is>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>ف يفيان</t>
+        </is>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>Voco</t>
+        </is>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>فوكو</t>
+        </is>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>Waayan Housewares Trading</t>
+        </is>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>Waayan لتجارة الأدوات المنزلية</t>
+        </is>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>Wadi Al Noor Modern Foodstuff</t>
+        </is>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>وادي النور للأغذية الحديثة</t>
+        </is>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>Wahat Al Raai Restaurant and Grills</t>
+        </is>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>مطعم واحة الراعي والمشاوي</t>
+        </is>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>Waitrose</t>
+        </is>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>ويتروس</t>
+        </is>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>Walkers Restaurant</t>
+        </is>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>مطعم ووكرز</t>
+        </is>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>WATCH IT</t>
+        </is>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>شاهد ذلك</t>
+        </is>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>Wear Mart</t>
+        </is>
+      </c>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>ارتدي مارت</t>
+        </is>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>West Zone Fresh Group</t>
+        </is>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>مجموعة ويست زون فريش</t>
+        </is>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>WeTransfer</t>
+        </is>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>وي ترانسفير</t>
+        </is>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>White Deer</t>
+        </is>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>الغزلان البيضاء</t>
+        </is>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>WHOS'IN</t>
+        </is>
+      </c>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>من في</t>
+        </is>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>WHSmith</t>
+        </is>
+      </c>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>WHSmith</t>
+        </is>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>Wondershare</t>
+        </is>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>وندر شير</t>
+        </is>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>Wundermart</t>
+        </is>
+      </c>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>ووندرمارت</t>
+        </is>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>Wyndham</t>
+        </is>
+      </c>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t>ويندهام</t>
+        </is>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>Xpress Gent's Salon</t>
+        </is>
+      </c>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>صالون إكسبرس للرجال</t>
+        </is>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>yallacompare</t>
+        </is>
+      </c>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t>يلا كومبين</t>
+        </is>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>Yango</t>
+        </is>
+      </c>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t>يانغو</t>
+        </is>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>Yas Mart</t>
+        </is>
+      </c>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t>مسيرة الحداد</t>
+        </is>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>You+ Pharmacy &amp; Beauty</t>
+        </is>
+      </c>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t>You+ الصيدلية والجمال</t>
+        </is>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>Your Address Coffee</t>
+        </is>
+      </c>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>عنوانك القهوة</t>
+        </is>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>YouTube</t>
+        </is>
+      </c>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>يوتيوب</t>
+        </is>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t>Zain Cura Medical Center LLC</t>
+        </is>
+      </c>
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>مركز زين كورا الطبي ذ.م.م</t>
+        </is>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>Zain Roastery</t>
+        </is>
+      </c>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t>محمصة زين</t>
+        </is>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>Zam Zam Gallery Accessories</t>
+        </is>
+      </c>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t>اكسسوارات معرض زم زم</t>
+        </is>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>Zara</t>
+        </is>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>زارا</t>
+        </is>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>Zenith Supermarket</t>
+        </is>
+      </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>Zenith سوبر ماركت</t>
+        </is>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>ZENNER Middle East</t>
+        </is>
+      </c>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t>زينر الشرق الأوسط</t>
+        </is>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t>Ziina</t>
+        </is>
+      </c>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>زينة</t>
+        </is>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>Zohoor Al Reef</t>
+        </is>
+      </c>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t>زهور الريف</t>
+        </is>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
           <t>Zoom Video Communications</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="B761" t="inlineStr">
         <is>
           <t>تكبير اتصالات الفيديو</t>
         </is>
